--- a/metadata/rnaseq/todo/TMC - University of California San Diego focusing on female reproduction (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/TMC - University of California San Diego focusing on female reproduction (RNAseq).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -600,12 +600,12 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -617,12 +617,12 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -651,12 +651,12 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -685,7 +685,12 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -697,7 +702,7 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -709,7 +714,7 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -721,7 +726,7 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -733,7 +738,7 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -745,7 +750,7 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -757,7 +762,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -769,7 +774,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -781,7 +786,7 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+          <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -793,7 +798,7 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -805,7 +810,7 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -817,7 +822,7 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -829,7 +834,7 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -841,7 +846,7 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -853,7 +858,7 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -865,7 +870,7 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -877,7 +882,7 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -889,40 +894,54 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
         <is>
           <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
         </is>
@@ -2634,10 +2653,10 @@
   <autoFilter ref="A1:E73"/>
   <dataValidations count="3">
     <dataValidation sqref="D2 D5 D8 D11 D14 D17 D20 D23 D26 D29 D32 D35 D38 D41 D44 D47 D50 D53 D56 D59 D62 D65 D68 D71" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$35</formula1>
+      <formula1>_validation_data!$C$1:$C$37</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D6 D9 D12 D15 D18 D21 D24 D27 D30 D33 D36 D39 D42 D45 D48 D51 D54 D57 D60 D63 D66 D69 D72" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$12</formula1>
+      <formula1>_validation_data!$D$1:$D$13</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D7 D10 D13 D16 D19 D22 D25 D28 D31 D34 D37 D40 D43 D46 D49 D52 D55 D58 D61 D64 D67 D70 D73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$29</formula1>
